--- a/src/cloud/tests/iExpense/iExpense_Argentina/CreatingExpenseReportITC_Test.xlsx
+++ b/src/cloud/tests/iExpense/iExpense_Argentina/CreatingExpenseReportITC_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DriveD\SVN\InternalMigration\SeleniumFramework_Cloud_ITC\src\cloud\tests\iExpense_Argentina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbethi\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\iExpense\iExpense_Argentina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3E65AD-3DFB-4673-AD66-95C540AFCCE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1AE3E2-16AC-4B3F-9052-493C6101928D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Execute</t>
   </si>
@@ -52,9 +52,6 @@
     <t>{password}</t>
   </si>
   <si>
-    <t>Navigate_More</t>
-  </si>
-  <si>
     <t>appl</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Template</t>
   </si>
   <si>
@@ -112,20 +106,41 @@
     <t>300</t>
   </si>
   <si>
-    <t>4/30/2021</t>
-  </si>
-  <si>
     <t>Employee Monthly Expenses</t>
   </si>
   <si>
     <t>Internet Allowance</t>
+  </si>
+  <si>
+    <t>Employer_pays_you</t>
+  </si>
+  <si>
+    <t>Employee Expenses</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Service Delivery Expenses</t>
+  </si>
+  <si>
+    <t>Airfare</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,24 +149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,21 +197,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,18 +222,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,26 +568,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
@@ -603,87 +599,174 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
       <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C5" s="5"/>
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
